--- a/tables/crosstab/crosstab_safety_time/regulations VS outbreak.xlsx
+++ b/tables/crosstab/crosstab_safety_time/regulations VS outbreak.xlsx
@@ -468,7 +468,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -483,25 +483,25 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2">
-        <v>4.41</v>
+        <v>4.25</v>
       </c>
       <c r="I2">
-        <v>7.35</v>
+        <v>7.5</v>
       </c>
       <c r="J2">
-        <v>6.86</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L2">
-        <v>5.39</v>
+        <v>5.5</v>
       </c>
       <c r="M2">
-        <v>25.49</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,40 +509,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H3">
-        <v>13.48</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>21.81</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>13.24</v>
+        <v>13.25</v>
       </c>
       <c r="K3">
-        <v>10.05</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>15.93</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>74.51000000000001</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>17.89</v>
+        <v>17.25</v>
       </c>
       <c r="I4">
-        <v>29.17</v>
+        <v>29.5</v>
       </c>
       <c r="J4">
-        <v>20.1</v>
+        <v>20.25</v>
       </c>
       <c r="K4">
-        <v>11.52</v>
+        <v>11.5</v>
       </c>
       <c r="L4">
-        <v>21.32</v>
+        <v>21.5</v>
       </c>
       <c r="M4">
         <v>100</v>
